--- a/rtss-pre1917/src/main/resources/ugvi/1891.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1891.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B1399-6BE0-4215-8113-37F907D3372B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02EDA5-C841-4895-8B41-82AFFC0BD48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22290" yWindow="765" windowWidth="13095" windowHeight="21630" activeTab="1" xr2:uid="{20BBD430-1005-4C4F-81EB-B703A8133AB7}"/>
+    <workbookView xWindow="28770" yWindow="1065" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{20BBD430-1005-4C4F-81EB-B703A8133AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
   <si>
     <t>губ</t>
   </si>
@@ -82,10 +82,6 @@
     <t xml:space="preserve">Минская  </t>
   </si>
   <si>
-    <t xml:space="preserve">Могилевская _x000D_
-Оренбургская  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Подольская </t>
   </si>
   <si>
@@ -360,6 +356,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Могилевская _x000D_</t>
+  </si>
+  <si>
+    <t>чж 1892</t>
+  </si>
+  <si>
+    <t>чр 1891</t>
+  </si>
+  <si>
+    <t>чу 1891</t>
+  </si>
+  <si>
+    <t>Самаркандская</t>
+  </si>
+  <si>
+    <t>Среднеазіатские области</t>
   </si>
 </sst>
 </file>
@@ -406,13 +420,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95645233-1AD4-4998-91CD-86154678BA64}">
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A102"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95:E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +996,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2">
         <v>50.7</v>
@@ -1005,7 +1020,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <v>59.6</v>
@@ -1029,7 +1044,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>48.7</v>
@@ -1053,7 +1068,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>47.7</v>
@@ -1077,7 +1092,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>43</v>
@@ -1101,7 +1116,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>41.7</v>
@@ -1125,7 +1140,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2">
         <v>37.5</v>
@@ -1149,7 +1164,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>41.5</v>
@@ -1173,7 +1188,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>39.200000000000003</v>
@@ -1197,7 +1212,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>39.4</v>
@@ -1221,7 +1236,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>41.2</v>
@@ -1245,7 +1260,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>37.6</v>
@@ -1269,7 +1284,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>39.4</v>
@@ -1293,7 +1308,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>29.2</v>
@@ -1317,7 +1332,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <v>38.299999999999997</v>
@@ -1341,7 +1356,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>39.200000000000003</v>
@@ -1365,7 +1380,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>26.6</v>
@@ -1389,7 +1404,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2">
         <v>28.9</v>
@@ -1413,7 +1428,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2">
         <v>29.3</v>
@@ -1437,7 +1452,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2">
         <v>28.3</v>
@@ -1461,7 +1476,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
         <v>49.4</v>
@@ -1485,7 +1500,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
         <v>51.1</v>
@@ -1509,7 +1524,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <v>47.1</v>
@@ -1533,7 +1548,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
         <v>55.1</v>
@@ -1557,7 +1572,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
         <v>54.8</v>
@@ -1581,7 +1596,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
         <v>54.8</v>
@@ -1605,7 +1620,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <v>45.7</v>
@@ -1629,7 +1644,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
         <v>45.9</v>
@@ -1653,7 +1668,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
         <v>47.2</v>
@@ -1677,7 +1692,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
         <v>47.4</v>
@@ -1701,7 +1716,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <v>47.7</v>
@@ -1725,7 +1740,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <v>37.4</v>
@@ -1749,7 +1764,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <v>51.4</v>
@@ -1773,7 +1788,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>45.1</v>
@@ -1797,7 +1812,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
         <v>47.9</v>
@@ -1821,7 +1836,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <v>51.6</v>
@@ -1845,7 +1860,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <v>49.1</v>
@@ -1869,7 +1884,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
         <v>55.8</v>
@@ -1893,7 +1908,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
         <v>45.7</v>
@@ -1917,7 +1932,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
         <v>60.9</v>
@@ -1941,7 +1956,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <v>47.2</v>
@@ -1965,7 +1980,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <v>55.4</v>
@@ -1989,7 +2004,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2">
         <v>49.4</v>
@@ -2013,7 +2028,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2">
         <v>30.2</v>
@@ -2037,7 +2052,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2">
         <v>51.8</v>
@@ -2061,7 +2076,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2">
         <v>46.2</v>
@@ -2085,7 +2100,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="2">
         <v>54.7</v>
@@ -2109,7 +2124,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2">
         <v>49</v>
@@ -2133,7 +2148,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2">
         <v>47.9</v>
@@ -2157,7 +2172,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2">
         <v>45.7</v>
@@ -2181,7 +2196,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2">
         <v>50.3</v>
@@ -2205,7 +2220,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2">
         <v>49.3</v>
@@ -2229,7 +2244,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="2">
         <v>45.2</v>
@@ -2253,7 +2268,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2">
         <v>57.8</v>
@@ -2277,7 +2292,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="2">
         <v>41.9</v>
@@ -2301,7 +2316,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2">
         <v>37.9</v>
@@ -2325,7 +2340,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="2">
         <v>48.4</v>
@@ -2349,7 +2364,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="2">
         <v>39.1</v>
@@ -2373,7 +2388,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" s="2">
         <v>49.3</v>
@@ -2397,7 +2412,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" s="2">
         <v>58.1</v>
@@ -2421,7 +2436,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="2">
         <v>47.7</v>
@@ -2445,7 +2460,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2">
         <v>24.4</v>
@@ -2469,31 +2484,31 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" s="2">
         <v>28.4</v>
@@ -2517,31 +2532,31 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2">
         <v>59.1</v>
@@ -2565,7 +2580,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2">
         <v>32.4</v>
@@ -2589,7 +2604,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2">
         <v>62.5</v>
@@ -2613,7 +2628,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2">
         <v>35.4</v>
@@ -2637,7 +2652,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2">
         <v>36.700000000000003</v>
@@ -2661,7 +2676,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2">
         <v>31.4</v>
@@ -2685,7 +2700,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2">
         <v>40.4</v>
@@ -2709,31 +2724,31 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2">
         <v>52.1</v>
@@ -2757,7 +2772,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" s="2">
         <v>36.299999999999997</v>
@@ -2781,7 +2796,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="2">
         <v>46</v>
@@ -2805,23 +2820,23 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2">
         <v>34.1</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I87" s="2">
         <v>21.8</v>
@@ -2829,7 +2844,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2">
         <v>5.18</v>
@@ -2853,7 +2868,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2">
         <v>44</v>
@@ -2877,7 +2892,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" s="2">
         <v>30.9</v>
@@ -2901,7 +2916,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2">
         <v>19.7</v>
@@ -2925,7 +2940,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" s="2">
         <v>45.6</v>
@@ -2949,7 +2964,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="2">
         <v>30.2</v>
@@ -2973,228 +2988,237 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="2">
-        <v>63.9</v>
-      </c>
-      <c r="D100" s="2">
-        <v>59.8</v>
+        <v>101</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="2">
-        <v>41</v>
-      </c>
-      <c r="H100" s="2">
-        <v>48.8</v>
+      <c r="G100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C101" s="2">
-        <v>49.8</v>
+        <v>63.9</v>
       </c>
       <c r="D101" s="2">
-        <v>47.9</v>
+        <v>59.8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H101" s="2">
-        <v>35</v>
+        <v>48.8</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2">
-        <v>47.2</v>
+        <v>49.8</v>
       </c>
       <c r="D102" s="2">
-        <v>46.1</v>
-      </c>
-      <c r="E102" s="2">
-        <v>46.7</v>
+        <v>47.9</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2">
+        <v>35</v>
+      </c>
+      <c r="H102" s="2">
+        <v>35</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="2">
+        <v>47.2</v>
+      </c>
+      <c r="D103" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="E103" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
         <v>33</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H103" s="2">
         <v>33.5</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I103" s="2">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
@@ -5950,6 +5974,15 @@
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
     </row>
+    <row r="410" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5958,528 +5991,1542 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8019535-5DD8-4791-A6F4-284543201039}">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4">
+        <v>359802</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14433</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>885846</v>
+      </c>
+      <c r="C3" s="4">
+        <v>31185</v>
+      </c>
+      <c r="D3" s="4">
+        <v>24330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1387742</v>
+      </c>
+      <c r="C4" s="4">
+        <v>59742</v>
+      </c>
+      <c r="D4" s="4">
+        <v>33850</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1397062</v>
+      </c>
+      <c r="C5" s="4">
+        <v>59877</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>2449786</v>
+      </c>
+      <c r="C6" s="4">
+        <v>125798</v>
+      </c>
+      <c r="D6" s="4">
+        <v>71620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1510028</v>
+      </c>
+      <c r="C7" s="4">
+        <v>61716</v>
+      </c>
+      <c r="D7" s="4">
+        <v>38489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>3193296</v>
+      </c>
+      <c r="C8" s="4">
+        <v>161859</v>
+      </c>
+      <c r="D8" s="4">
+        <v>99290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1612779</v>
+      </c>
+      <c r="C9" s="4">
+        <v>57019</v>
+      </c>
+      <c r="D9" s="4">
+        <v>39699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>1830445</v>
+      </c>
+      <c r="C10" s="4">
+        <v>85520</v>
+      </c>
+      <c r="D10" s="4">
+        <v>48516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1415341</v>
+      </c>
+      <c r="C11" s="4">
+        <v>73348</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1380944</v>
+      </c>
+      <c r="C12" s="4">
+        <v>83695</v>
+      </c>
+      <c r="D12" s="4">
+        <v>59416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="4">
+        <v>2661613</v>
+      </c>
+      <c r="C13" s="4">
+        <v>129754</v>
+      </c>
+      <c r="D13" s="4">
+        <v>78175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>20128644</v>
+      </c>
+      <c r="C14" s="4">
+        <v>943937</v>
+      </c>
+      <c r="D14" s="4">
+        <v>578312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1063010</v>
+      </c>
+      <c r="C15" s="4">
+        <v>45719</v>
+      </c>
+      <c r="D15" s="4">
+        <v>26121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>465272</v>
+      </c>
+      <c r="C16" s="4">
+        <v>19401</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="4">
+        <v>896509</v>
+      </c>
+      <c r="C17" s="4">
+        <v>33679</v>
+      </c>
+      <c r="D17" s="4">
+        <v>18135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>751959</v>
+      </c>
+      <c r="C18" s="4">
+        <v>31180</v>
+      </c>
+      <c r="D18" s="4">
+        <v>16884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4">
+        <v>665763</v>
+      </c>
+      <c r="C19" s="4">
+        <v>26121</v>
+      </c>
+      <c r="D19" s="4">
+        <v>16374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1091829</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42981</v>
+      </c>
+      <c r="D20" s="4">
+        <v>25884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1216054</v>
+      </c>
+      <c r="C21" s="4">
+        <v>51391</v>
+      </c>
+      <c r="D21" s="4">
+        <v>28596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4">
+        <v>653988</v>
+      </c>
+      <c r="C22" s="4">
+        <v>25107</v>
+      </c>
+      <c r="D22" s="4">
+        <v>17161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>793650</v>
+      </c>
+      <c r="C23" s="4">
+        <v>31305</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>708453</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2078</v>
+      </c>
+      <c r="D24" s="4">
+        <v>15199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>763581</v>
+      </c>
+      <c r="C25" s="4">
+        <v>29244</v>
+      </c>
+      <c r="D25" s="4">
+        <v>17815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>9114483</v>
+      </c>
+      <c r="C26" s="4">
+        <v>356846</v>
+      </c>
+      <c r="D26" s="4">
+        <v>208960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="4">
+        <v>711900</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19147</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1282199</v>
+      </c>
+      <c r="C28" s="4">
+        <v>37124</v>
+      </c>
+      <c r="D28" s="4">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4">
+        <v>408563</v>
+      </c>
+      <c r="C29" s="4">
+        <v>11983</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2410662</v>
+      </c>
+      <c r="C30" s="4">
+        <v>68254</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1606309</v>
+      </c>
+      <c r="C31" s="4">
+        <v>79325</v>
+      </c>
+      <c r="D31" s="4">
+        <v>52782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1525100</v>
+      </c>
+      <c r="C32" s="4">
+        <v>77940</v>
+      </c>
+      <c r="D32" s="4">
+        <v>58306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1306858</v>
+      </c>
+      <c r="C33" s="4">
+        <v>61622</v>
+      </c>
+      <c r="D33" s="4">
+        <v>37660</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2712268</v>
+      </c>
+      <c r="C34" s="4">
+        <v>149416</v>
+      </c>
+      <c r="D34" s="4">
+        <v>118774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4">
+        <v>3017038</v>
+      </c>
+      <c r="C35" s="4">
+        <v>165490</v>
+      </c>
+      <c r="D35" s="4">
+        <v>111953</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1680686</v>
+      </c>
+      <c r="C36" s="4">
+        <v>92173</v>
+      </c>
+      <c r="D36" s="4">
+        <v>65272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="4">
+        <v>2219686</v>
+      </c>
+      <c r="C37" s="4">
+        <v>101539</v>
+      </c>
+      <c r="D37" s="4">
+        <v>77267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1252935</v>
+      </c>
+      <c r="C38" s="4">
+        <v>57604</v>
+      </c>
+      <c r="D38" s="4">
+        <v>48687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1416077</v>
+      </c>
+      <c r="C39" s="4">
+        <v>66764</v>
+      </c>
+      <c r="D39" s="4">
+        <v>41238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2584201</v>
+      </c>
+      <c r="C40" s="4">
+        <v>122565</v>
+      </c>
+      <c r="D40" s="4">
+        <v>90306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1519125</v>
+      </c>
+      <c r="C41" s="4">
+        <v>72581</v>
+      </c>
+      <c r="D41" s="4">
+        <v>59480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="4">
+        <v>839339</v>
+      </c>
+      <c r="C42" s="4">
+        <v>31355</v>
+      </c>
+      <c r="D42" s="4">
+        <v>27915</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1569462</v>
+      </c>
+      <c r="C43" s="4">
+        <v>86631</v>
+      </c>
+      <c r="D43" s="4">
+        <v>67714</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1311129</v>
+      </c>
+      <c r="C44" s="4">
+        <v>59179</v>
+      </c>
+      <c r="D44" s="4">
+        <v>38557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="4">
+        <v>363955</v>
+      </c>
+      <c r="C45" s="4">
+        <v>17441</v>
+      </c>
+      <c r="D45" s="4">
+        <v>12810</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2127397</v>
+      </c>
+      <c r="C46" s="4">
+        <v>199667</v>
+      </c>
+      <c r="D46" s="4">
+        <v>89808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1606013</v>
+      </c>
+      <c r="C47" s="4">
+        <v>78785</v>
+      </c>
+      <c r="D47" s="4">
+        <v>74230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2896879</v>
+      </c>
+      <c r="C48" s="4">
+        <v>156712</v>
+      </c>
+      <c r="D48" s="4">
+        <v>117028</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2945338</v>
+      </c>
+      <c r="C49" s="4">
+        <v>134529</v>
+      </c>
+      <c r="D49" s="4">
+        <v>83286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1034125</v>
+      </c>
+      <c r="C50" s="4">
+        <v>52632</v>
+      </c>
+      <c r="D50" s="4">
+        <v>29690</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1954920</v>
+      </c>
+      <c r="C51" s="4">
+        <v>92266</v>
+      </c>
+      <c r="D51" s="4">
+        <v>66132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2700494</v>
+      </c>
+      <c r="C52" s="4">
+        <v>149458</v>
+      </c>
+      <c r="D52" s="4">
+        <v>106837</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4">
+        <v>841317</v>
+      </c>
+      <c r="C53" s="4">
+        <v>30156</v>
+      </c>
+      <c r="D53" s="4">
+        <v>23152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1035439</v>
+      </c>
+      <c r="C54" s="4">
+        <v>31223</v>
+      </c>
+      <c r="D54" s="4">
+        <v>27592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4">
+        <v>2438571</v>
+      </c>
+      <c r="C55" s="4">
+        <v>126373</v>
+      </c>
+      <c r="D55" s="4">
+        <v>104926</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1651736</v>
+      </c>
+      <c r="C56" s="4">
+        <v>76289</v>
+      </c>
+      <c r="D56" s="4">
+        <v>62764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="4">
+        <v>1454787</v>
+      </c>
+      <c r="C57" s="4">
+        <v>79589</v>
+      </c>
+      <c r="D57" s="4">
+        <v>57173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1181169</v>
+      </c>
+      <c r="C58" s="4">
+        <v>57887</v>
+      </c>
+      <c r="D58" s="4">
+        <v>35405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4">
+        <v>2907014</v>
+      </c>
+      <c r="C59" s="4">
+        <v>139796</v>
+      </c>
+      <c r="D59" s="4">
+        <v>114659</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1882218</v>
+      </c>
+      <c r="C60" s="4">
+        <v>88071</v>
+      </c>
+      <c r="D60" s="4">
+        <v>57003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4">
+        <v>1544786</v>
+      </c>
+      <c r="C61" s="4">
+        <v>77644</v>
+      </c>
+      <c r="D61" s="4">
+        <v>68307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="4">
+        <v>2088602</v>
+      </c>
+      <c r="C62" s="4">
+        <v>102867</v>
+      </c>
+      <c r="D62" s="4">
+        <v>67708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="4">
+        <v>2537339</v>
+      </c>
+      <c r="C63" s="4">
+        <v>114682</v>
+      </c>
+      <c r="D63" s="4">
+        <v>91992</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="4">
+        <v>1859034</v>
+      </c>
+      <c r="C64" s="4">
+        <v>107428</v>
+      </c>
+      <c r="D64" s="4">
+        <v>60764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="4">
+        <v>772011</v>
+      </c>
+      <c r="C65" s="4">
+        <v>3224</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4">
+        <v>300000</v>
+      </c>
+      <c r="C66" s="4">
+        <v>11381</v>
+      </c>
+      <c r="D66" s="4">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="4">
+        <v>2248716</v>
+      </c>
+      <c r="C67" s="4">
+        <v>108812</v>
+      </c>
+      <c r="D67" s="4">
+        <v>77233</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4">
+        <v>1212216</v>
+      </c>
+      <c r="C68" s="4">
+        <v>47413</v>
+      </c>
+      <c r="D68" s="4">
+        <v>33522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="4">
+        <v>65359347</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3212059</v>
+      </c>
+      <c r="D69" s="4">
+        <v>2368755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="4">
+        <v>2090219</v>
+      </c>
+      <c r="C70" s="4">
+        <v>121533</v>
+      </c>
+      <c r="D70" s="4">
+        <v>81789</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="4">
+        <v>99103355</v>
+      </c>
+      <c r="C71" s="4">
+        <v>4702629</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3283808</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="4">
+        <v>881926</v>
+      </c>
+      <c r="C72" s="4">
+        <v>21497</v>
+      </c>
+      <c r="D72" s="4">
+        <v>19879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="4">
+        <v>661444</v>
+      </c>
+      <c r="C73" s="4">
+        <v>10321</v>
+      </c>
+      <c r="D73" s="4">
+        <v>11554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="4">
+        <v>793969</v>
+      </c>
+      <c r="C74" s="4">
+        <v>22575</v>
+      </c>
+      <c r="D74" s="4">
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4">
+        <v>237114</v>
+      </c>
+      <c r="C75" s="4">
+        <v>3894</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="4">
+        <v>1544358</v>
+      </c>
+      <c r="C76" s="4">
+        <v>91303</v>
+      </c>
+      <c r="D76" s="4">
+        <v>66594</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="4">
+        <v>965511</v>
+      </c>
+      <c r="C77" s="4">
+        <v>31290</v>
+      </c>
+      <c r="D77" s="4">
+        <v>17245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="4">
+        <v>695577</v>
+      </c>
+      <c r="C78" s="4">
+        <v>43549</v>
+      </c>
+      <c r="D78" s="4">
+        <v>36430</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="4">
+        <v>782596</v>
+      </c>
+      <c r="C79" s="4">
+        <v>27658</v>
+      </c>
+      <c r="D79" s="4">
+        <v>17084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="4">
+        <v>832384</v>
+      </c>
+      <c r="C80" s="4">
+        <v>30534</v>
+      </c>
+      <c r="D80" s="4">
+        <v>20196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="4">
+        <v>690528</v>
+      </c>
+      <c r="C81" s="4">
+        <v>21700</v>
+      </c>
+      <c r="D81" s="4">
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="4">
+        <v>8085407</v>
+      </c>
+      <c r="C82" s="4">
+        <v>304321</v>
+      </c>
+      <c r="D82" s="4">
+        <v>220008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="4">
+        <v>63221</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="D83" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" s="4">
+        <v>459105</v>
+      </c>
+      <c r="C84" s="4">
+        <v>23946</v>
+      </c>
+      <c r="D84" s="4">
+        <v>19733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" s="4">
+        <v>586002</v>
+      </c>
+      <c r="C85" s="4">
+        <v>20933</v>
+      </c>
+      <c r="D85" s="4">
+        <v>12119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" s="4">
+        <v>456017</v>
+      </c>
+      <c r="C86" s="4">
+        <v>20985</v>
+      </c>
+      <c r="D86" s="4">
+        <v>14919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="B87" s="4">
+        <v>132842</v>
+      </c>
+      <c r="C87" s="4">
+        <v>4380</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="B88" s="4">
+        <v>1424767</v>
+      </c>
+      <c r="C88" s="4">
+        <v>73710</v>
+      </c>
+      <c r="D88" s="4">
+        <v>61275</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B89" s="4">
+        <v>1423100</v>
+      </c>
+      <c r="C89" s="4">
+        <v>62629</v>
+      </c>
+      <c r="D89" s="4">
+        <v>34862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B90" s="4">
+        <v>261112</v>
+      </c>
+      <c r="C90" s="4">
+        <v>8064</v>
+      </c>
+      <c r="D90" s="4">
+        <v>4839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B91" s="4">
+        <v>20302</v>
+      </c>
+      <c r="C91" s="4">
+        <v>395</v>
+      </c>
+      <c r="D91" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="B92" s="4">
+        <v>4817098</v>
+      </c>
+      <c r="C92" s="4">
+        <v>215042</v>
+      </c>
+      <c r="D92" s="4">
+        <v>150174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B93" s="4">
+        <v>602654</v>
+      </c>
+      <c r="C93" s="4">
+        <v>18237</v>
+      </c>
+      <c r="D93" s="4">
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B94" s="4">
+        <v>700000</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="4">
+        <v>810714</v>
+      </c>
+      <c r="C95" s="4">
+        <v>16772</v>
+      </c>
+      <c r="D95" s="4">
+        <v>14630</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="B96" s="4">
+        <v>595254</v>
+      </c>
+      <c r="C96" s="4">
+        <v>10055</v>
+      </c>
+      <c r="D96" s="4">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="B97" s="4">
+        <v>681484</v>
+      </c>
+      <c r="C97" s="4">
+        <v>15108</v>
+      </c>
+      <c r="D97" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="B98" s="4">
+        <v>1164507</v>
+      </c>
+      <c r="C98" s="4">
+        <v>15688</v>
+      </c>
+      <c r="D98" s="4">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="B99" s="4">
+        <v>397959</v>
+      </c>
+      <c r="C99" s="4">
+        <v>10456</v>
+      </c>
+      <c r="D99" s="4">
+        <v>6631</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="B100" s="4">
+        <v>584903</v>
+      </c>
+      <c r="C100" s="4">
+        <v>7527</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="B101" s="4">
+        <v>834965</v>
+      </c>
+      <c r="C101" s="4">
+        <v>53374</v>
+      </c>
+      <c r="D101" s="4">
+        <v>34218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" s="4">
+        <v>6372290</v>
+      </c>
+      <c r="C102" s="4">
+        <v>147217</v>
+      </c>
+      <c r="D102" s="4">
+        <v>103430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>105</v>
-      </c>
+      <c r="B103" s="4">
+        <v>118378150</v>
+      </c>
+      <c r="C103" s="4">
+        <v>5369209</v>
+      </c>
+      <c r="D103" s="4">
+        <v>3757420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rtss-pre1917/src/main/resources/ugvi/1891.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/1891.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B02EDA5-C841-4895-8B41-82AFFC0BD48F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCABDE9-7FF8-4C5B-970F-C52E5D666898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="1065" windowWidth="9570" windowHeight="21630" activeTab="1" xr2:uid="{20BBD430-1005-4C4F-81EB-B703A8133AB7}"/>
+    <workbookView xWindow="16935" yWindow="1905" windowWidth="18495" windowHeight="21630" activeTab="1" xr2:uid="{20BBD430-1005-4C4F-81EB-B703A8133AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="116">
   <si>
     <t>губ</t>
   </si>
@@ -374,6 +375,12 @@
   </si>
   <si>
     <t>Среднеазіатские области</t>
+  </si>
+  <si>
+    <t>Число рождений "в земских губерний" напечатано 3,212,059, правильное число = 3,212,509</t>
+  </si>
+  <si>
+    <t>Число рождений "для Европейской России" напечатано 4,702,629, с учётом предыдущей поправки = 4,703,088</t>
   </si>
 </sst>
 </file>
@@ -400,12 +407,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -420,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -428,6 +441,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5993,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8019535-5DD8-4791-A6F4-284543201039}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,7 +6347,7 @@
         <v>708453</v>
       </c>
       <c r="C24" s="4">
-        <v>2078</v>
+        <v>20718</v>
       </c>
       <c r="D24" s="4">
         <v>15199</v>
@@ -6599,7 +6613,7 @@
         <v>1569462</v>
       </c>
       <c r="C43" s="4">
-        <v>86631</v>
+        <v>80631</v>
       </c>
       <c r="D43" s="4">
         <v>67714</v>
@@ -6641,7 +6655,7 @@
         <v>2127397</v>
       </c>
       <c r="C46" s="4">
-        <v>199667</v>
+        <v>109667</v>
       </c>
       <c r="D46" s="4">
         <v>89808</v>
@@ -6962,8 +6976,8 @@
       <c r="B69" s="4">
         <v>65359347</v>
       </c>
-      <c r="C69" s="4">
-        <v>3212059</v>
+      <c r="C69" s="5">
+        <v>3212509</v>
       </c>
       <c r="D69" s="4">
         <v>2368755</v>
@@ -6990,8 +7004,8 @@
       <c r="B71" s="4">
         <v>99103355</v>
       </c>
-      <c r="C71" s="4">
-        <v>4702629</v>
+      <c r="C71" s="5">
+        <v>4703088</v>
       </c>
       <c r="D71" s="4">
         <v>3283808</v>
@@ -7529,4 +7543,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14390CF-CC19-4758-B071-5B76EBCF7D9E}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>